--- a/developer-study/developer-study/task-2/1-manual/data.xlsx
+++ b/developer-study/developer-study/task-2/1-manual/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syq/Documents/研/研1/dApp升级/SmartUpdater论文/TSE-修改/developer study/SmartUpdater/git/developer study/task-2/1-manual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syq/Documents/研/研1/dApp升级/SmartUpdater论文/TSE-修改/SmartUpdater/developer-study/developer-study/task-2/1-manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E352F5-E532-1D43-8D72-EF2C2DA64568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0EB106-3EDF-7A4F-B144-1A443ABA8817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3700" yWindow="22360" windowWidth="29740" windowHeight="17340" xr2:uid="{518212FA-6213-304F-810C-F76B383B045A}"/>
   </bookViews>
@@ -101,7 +101,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> to save your time, when recovering the mapping-type state, you only need to consider operating the state "balances".</t>
+      <t xml:space="preserve"> to save your time, when recovering the mapping-type state, you only need to consider operating the state "balances". For other variable types, you may define the simplest possible versions as needed.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,7 +512,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
